--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDu.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDu.xlsx
@@ -24,7 +24,7 @@
     <t>物料出库明细</t>
   </si>
   <si>
-    <t>装车日期:@ticket.TruckLoadingTime.toLocaleDateString()</t>
+    <t>装车日期:@ticket.TruckLoadingTime==null?'':ticket.TruckLoadingTime.toLocaleDateString()</t>
   </si>
   <si>
     <t>收货方:@shipmentTicket.Destination</t>
@@ -92,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -150,9 +150,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,45 +241,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,66 +286,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -302,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,6 +610,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -639,56 +689,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -697,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDu.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDu.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>@var ticket=putOutStorageTicket; var items=putOutStorageTicketItems;""//初始化代码</t>
   </si>
   <si>
     <t>物料出库明细</t>
+  </si>
+  <si>
+    <t>#SET TABLE COLUMNS 9</t>
   </si>
   <si>
     <t>装车日期:@ticket.TruckLoadingTime==null?'':ticket.TruckLoadingTime.toLocaleDateString()</t>
@@ -92,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -122,14 +125,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -151,15 +154,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,8 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +195,51 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,77 +259,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,181 +311,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,6 +591,54 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,55 +662,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,31 +712,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,104 +745,104 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,16 +858,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,10 +879,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1239,7 +1245,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1257,107 +1263,109 @@
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="15"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:9">
-      <c r="A5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="H5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="A6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDu.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDu.xlsx
@@ -95,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -147,21 +147,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,37 +231,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,32 +268,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +591,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,39 +649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -684,6 +666,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -700,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,133 +712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,12 +1245,14 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="11.7522123893805" customWidth="1"/>
+    <col min="1" max="1" width="4.51327433628319" customWidth="1"/>
+    <col min="3" max="3" width="10.4955752212389" customWidth="1"/>
+    <col min="4" max="4" width="14.212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:9">
